--- a/james/MAUVE_datasets/HJ.xlsx
+++ b/james/MAUVE_datasets/HJ.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/james/Workspace/gpt-2-output-dataset/james/MAUVE_datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07099D55-6D2C-664C-B6C6-0C85C2DF7025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EBE97D-5317-334F-8EB4-F49F2C16BA43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-240" windowWidth="38400" windowHeight="21100" xr2:uid="{EE769C88-4274-1148-A244-B29DBA610712}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="46">
   <si>
     <t>xl</t>
   </si>
@@ -138,6 +138,42 @@
   </si>
   <si>
     <t>correlation=0.7619047619047621, pvalue=0.028004939153071794</t>
+  </si>
+  <si>
+    <t>correlation=0.9940297973880049, pvalue=5.296153515644831e-07</t>
+  </si>
+  <si>
+    <t>correlation=0.523809523809524, pvalue=0.18272075053971484</t>
+  </si>
+  <si>
+    <t>correlation=0.14285714285714288, pvalue=0.735764859879812</t>
+  </si>
+  <si>
+    <t>correlation=0.7425282823862205, pvalue=0.034855039336664125</t>
+  </si>
+  <si>
+    <t>correlation=0.30952380952380953, pvalue=0.4556448907375822</t>
+  </si>
+  <si>
+    <t>correlation=-0.09523809523809526, pvalue=0.8225054302036114</t>
+  </si>
+  <si>
+    <t>correlation=-0.8263621207201486, pvalue=0.01144276499994122</t>
+  </si>
+  <si>
+    <t>correlation=-0.3333333333333334, pvalue=0.4197530864197531</t>
+  </si>
+  <si>
+    <t>correlation=0.2380952380952381, pvalue=0.5701563208157683)</t>
+  </si>
+  <si>
+    <t>correlation=0.8982196964349441, pvalue=0.002438796796382353</t>
+  </si>
+  <si>
+    <t>correlation=0.4761904761904762, pvalue=0.23293553465009798</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
@@ -489,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AB37F1-575E-B64C-A111-AA3BF0E93C1D}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -858,6 +894,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G13" t="s">
         <v>8</v>
@@ -1063,6 +1113,17 @@
         <v>24</v>
       </c>
     </row>
+    <row r="24" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="25" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G25" t="s">
         <v>9</v>
@@ -1268,6 +1329,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="36" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="37" spans="7:13" x14ac:dyDescent="0.2">
       <c r="G37" t="s">
         <v>10</v>
@@ -1471,6 +1546,20 @@
       </c>
       <c r="L47" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J48" t="s">
+        <v>43</v>
+      </c>
+      <c r="L48" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
